--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,10 @@
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188394773444314</v>
+        <v>0.4403303333333333</v>
       </c>
       <c r="N2">
-        <v>0.188394773444314</v>
+        <v>1.320991</v>
       </c>
       <c r="O2">
-        <v>0.01143717506242703</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="P2">
-        <v>0.01143717506242703</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="Q2">
-        <v>1.102863169487643</v>
+        <v>0.07040896707677778</v>
       </c>
       <c r="R2">
-        <v>1.102863169487643</v>
+        <v>0.633680703691</v>
       </c>
       <c r="S2">
-        <v>0.01143717506242703</v>
+        <v>0.0006852042733222778</v>
       </c>
       <c r="T2">
-        <v>0.01143717506242703</v>
+        <v>0.0006852042733222779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5224159285787</v>
+        <v>15.65098733333333</v>
       </c>
       <c r="N3">
-        <v>15.5224159285787</v>
+        <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9423434903274308</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="P3">
-        <v>0.9423434903274308</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="Q3">
-        <v>90.86823650210168</v>
+        <v>2.502598091595778</v>
       </c>
       <c r="R3">
-        <v>90.86823650210168</v>
+        <v>22.523382824362</v>
       </c>
       <c r="S3">
-        <v>0.9423434903274308</v>
+        <v>0.02435472324000582</v>
       </c>
       <c r="T3">
-        <v>0.9423434903274308</v>
+        <v>0.02435472324000582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +661,483 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.761331449863888</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N4">
-        <v>0.761331449863888</v>
+        <v>0.004531</v>
       </c>
       <c r="O4">
-        <v>0.04621933461014217</v>
+        <v>8.876335118539137E-05</v>
       </c>
       <c r="P4">
-        <v>0.04621933461014217</v>
+        <v>8.876335118539136E-05</v>
       </c>
       <c r="Q4">
-        <v>4.456834977302031</v>
+        <v>0.0002415028034444445</v>
       </c>
       <c r="R4">
-        <v>4.456834977302031</v>
+        <v>0.002173525231</v>
       </c>
       <c r="S4">
-        <v>0.04621933461014217</v>
+        <v>2.350251108768524E-06</v>
       </c>
       <c r="T4">
-        <v>0.04621933461014217</v>
+        <v>2.350251108768524E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.479701</v>
+      </c>
+      <c r="I5">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J5">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.008111666666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.024335</v>
+      </c>
+      <c r="O5">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="P5">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="Q5">
+        <v>0.001297058203888889</v>
+      </c>
+      <c r="R5">
+        <v>0.011673523835</v>
+      </c>
+      <c r="S5">
+        <v>1.262267948176606E-05</v>
+      </c>
+      <c r="T5">
+        <v>1.262267948176606E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.479701</v>
+      </c>
+      <c r="I6">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J6">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.914341</v>
+      </c>
+      <c r="N6">
+        <v>2.743023</v>
+      </c>
+      <c r="O6">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="P6">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="Q6">
+        <v>0.1462034306803333</v>
+      </c>
+      <c r="R6">
+        <v>1.315830876123</v>
+      </c>
+      <c r="S6">
+        <v>0.001422818990758676</v>
+      </c>
+      <c r="T6">
+        <v>0.001422818990758676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4403303333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.320991</v>
+      </c>
+      <c r="O7">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="P7">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="Q7">
+        <v>2.588768959877334</v>
+      </c>
+      <c r="R7">
+        <v>23.298920638896</v>
+      </c>
+      <c r="S7">
+        <v>0.02519331880011434</v>
+      </c>
+      <c r="T7">
+        <v>0.02519331880011434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N8">
+        <v>46.952962</v>
+      </c>
+      <c r="O8">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="P8">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="Q8">
+        <v>92.01453348274134</v>
+      </c>
+      <c r="R8">
+        <v>828.130801344672</v>
+      </c>
+      <c r="S8">
+        <v>0.8954647989847426</v>
+      </c>
+      <c r="T8">
+        <v>0.8954647989847427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.001510333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.004531</v>
+      </c>
+      <c r="O9">
+        <v>8.876335118539137E-05</v>
+      </c>
+      <c r="P9">
+        <v>8.876335118539136E-05</v>
+      </c>
+      <c r="Q9">
+        <v>0.008879479237333334</v>
+      </c>
+      <c r="R9">
+        <v>0.079915313136</v>
+      </c>
+      <c r="S9">
+        <v>8.641310007662284E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.641310007662284E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.879152</v>
+      </c>
+      <c r="H10">
+        <v>17.637456</v>
+      </c>
+      <c r="I10">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J10">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.008111666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.024335</v>
+      </c>
+      <c r="O10">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="P10">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="Q10">
+        <v>0.04768972130666667</v>
+      </c>
+      <c r="R10">
+        <v>0.42920749176</v>
+      </c>
+      <c r="S10">
+        <v>0.0004641056699105311</v>
+      </c>
+      <c r="T10">
+        <v>0.0004641056699105312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.879152</v>
+      </c>
+      <c r="H11">
+        <v>17.637456</v>
+      </c>
+      <c r="I11">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J11">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.914341</v>
+      </c>
+      <c r="N11">
+        <v>2.743023</v>
+      </c>
+      <c r="O11">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="P11">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="Q11">
+        <v>5.375549718832001</v>
+      </c>
+      <c r="R11">
+        <v>48.379947469488</v>
+      </c>
+      <c r="S11">
+        <v>0.05231364401047853</v>
+      </c>
+      <c r="T11">
+        <v>0.05231364401047853</v>
       </c>
     </row>
   </sheetData>
